--- a/data/07_known_tf/tf.xlsx
+++ b/data/07_known_tf/tf.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/4B97C4FF-0383-4A17-A0B9-7D0146C95548/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/grn/data/07_known_tf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFA88021-4AE5-1440-9382-88525BE3F04A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB75A7E1-BD84-CB42-8103-43C4491CF1CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21240" yWindow="13820" windowWidth="17940" windowHeight="10760" xr2:uid="{3DD80E55-018A-A945-9DB0-3632F1C8D9EF}"/>
+    <workbookView xWindow="21220" yWindow="13820" windowWidth="17940" windowHeight="10760" xr2:uid="{3DD80E55-018A-A945-9DB0-3632F1C8D9EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>Year</t>
   </si>
@@ -90,12 +90,6 @@
     <t>endosperm</t>
   </si>
   <si>
-    <t xml:space="preserve">shoot meristem, leaf, floral meristem </t>
-  </si>
-  <si>
-    <t>(RNA-Seq done in ear)</t>
-  </si>
-  <si>
     <t>pericarps, floral</t>
   </si>
   <si>
@@ -118,6 +112,9 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>leaf, shoot/floral meristem, ear</t>
   </si>
 </sst>
 </file>
@@ -475,7 +472,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -541,7 +538,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -558,10 +555,10 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -578,10 +575,10 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
@@ -598,7 +595,7 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1">
         <v>204</v>
@@ -618,7 +615,7 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1">
         <v>108</v>
@@ -635,16 +632,16 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/data/07_known_tf/tf.xlsx
+++ b/data/07_known_tf/tf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/4B97C4FF-0383-4A17-A0B9-7D0146C95548/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/grn/data/07_known_tf/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/8876F1D2-24CF-4626-8A58-859E45A1C789/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/grn/data/07_known_tf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB75A7E1-BD84-CB42-8103-43C4491CF1CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98831A6-5D63-D24B-995E-B56BA09DFE43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21220" yWindow="13820" windowWidth="17940" windowHeight="10760" xr2:uid="{3DD80E55-018A-A945-9DB0-3632F1C8D9EF}"/>
+    <workbookView xWindow="23580" yWindow="14040" windowWidth="17940" windowHeight="10760" xr2:uid="{3DD80E55-018A-A945-9DB0-3632F1C8D9EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>Year</t>
   </si>
@@ -115,6 +115,24 @@
   </si>
   <si>
     <t>leaf, shoot/floral meristem, ear</t>
+  </si>
+  <si>
+    <t>Auxin Response Ractors (ARF)</t>
+  </si>
+  <si>
+    <t>Galli2018</t>
+  </si>
+  <si>
+    <t>in vitro</t>
+  </si>
+  <si>
+    <t>ChIP-seq</t>
+  </si>
+  <si>
+    <t>DAP-seq</t>
+  </si>
+  <si>
+    <t>&gt;100,000 cis-regulatory regions</t>
   </si>
 </sst>
 </file>
@@ -469,19 +487,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E92F6D-B0E4-DE47-8313-0C5EC357316C}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -512,7 +528,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -532,7 +548,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -552,7 +568,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
@@ -572,7 +588,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -592,7 +608,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
@@ -612,7 +628,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
@@ -632,7 +648,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -642,6 +658,26 @@
       </c>
       <c r="F8" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2018</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/data/07_known_tf/tf.xlsx
+++ b/data/07_known_tf/tf.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/8876F1D2-24CF-4626-8A58-859E45A1C789/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/grn/data/07_known_tf/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/184513EF-336C-4BBE-8C42-3A53BDDE4F13/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/grn/data/07_known_tf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98831A6-5D63-D24B-995E-B56BA09DFE43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54F4164-0450-0843-ABCF-2C3ED4405F67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23580" yWindow="14040" windowWidth="17940" windowHeight="10760" xr2:uid="{3DD80E55-018A-A945-9DB0-3632F1C8D9EF}"/>
   </bookViews>
@@ -117,9 +117,6 @@
     <t>leaf, shoot/floral meristem, ear</t>
   </si>
   <si>
-    <t>Auxin Response Ractors (ARF)</t>
-  </si>
-  <si>
     <t>Galli2018</t>
   </si>
   <si>
@@ -133,6 +130,9 @@
   </si>
   <si>
     <t>&gt;100,000 cis-regulatory regions</t>
+  </si>
+  <si>
+    <t>Auxin Response Ractors (ARF) family (14)</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -528,7 +528,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -548,7 +548,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -568,7 +568,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
@@ -588,7 +588,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -608,7 +608,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
@@ -628,7 +628,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
@@ -648,7 +648,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -665,19 +665,19 @@
         <v>2018</v>
       </c>
       <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
         <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
